--- a/exp2/case01/report/learning-outcome/WilcoxAnalysis.xlsx
+++ b/exp2/case01/report/learning-outcome/WilcoxAnalysis.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="100">
   <si>
-    <t>Summary of Wilcoxon Analysis for Programming Skill - Conditionals</t>
+    <t>Summary of Wilcoxon Analysis for Programming Skill - Cond. Structures</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -78,7 +78,7 @@
     <t>ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type between non-gamified:ont-gamified</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type between non-gamified:ont-gamified</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -300,25 +300,25 @@
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type:CLRole between non-gamified.Apprentice:non-gamified.Master</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Apprentice:non-gamified.Master</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type:CLRole between non-gamified.Apprentice:ont-gamified.Apprentice</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Apprentice:ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type:CLRole between non-gamified.Apprentice:ont-gamified.Master</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Apprentice:ont-gamified.Master</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type:CLRole between non-gamified.Master:ont-gamified.Apprentice</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Master:ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type:CLRole between non-gamified.Master:ont-gamified.Master</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type:CLRole between non-gamified.Master:ont-gamified.Master</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Programming Skill - Conditionals in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
+    <t>Wilcoxon Analysis for Programming Skill - Cond. Structures in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
   </si>
 </sst>
 </file>
